--- a/biology/Médecine/L'Autre_Maison_(film)/L'Autre_Maison_(film).xlsx
+++ b/biology/Médecine/L'Autre_Maison_(film)/L'Autre_Maison_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27Autre_Maison_(film)</t>
+          <t>L'Autre_Maison_(film)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Autre Maison est un film québécois réalisé par Mathieu Roy sorti en 2013 et mettant en vedette Marcel Sabourin, Roy Dupuis et Émile Proulx-Cloutier.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27Autre_Maison_(film)</t>
+          <t>L'Autre_Maison_(film)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Henri, 80 ans, est atteint de la maladie d'Alzheimer. Il vit dans le chalet familial au bord d'un lac avec son fils Éric, apprenti pilote de brousse, et Maia, la copine musicienne de ce dernier. Gabriel, son autre fils, est photographe de guerre et est toujours en reportage sur le terrain à l'étranger. Éric est excédé par le fait que son frère est rarement là pour l'aider avec Henri qui fait régulièrement des fugues cherchant à trouver l'autre maison, sa maison. Les deux frères se disputent au sujet de la marche à suivre pour prendre soin de leur père. Alors qu'Éric veut le garder au chalet, Gabriel pense qu'il devrait être placer dans un établissement spécialisé.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27Autre_Maison_(film)</t>
+          <t>L'Autre_Maison_(film)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Source : IMDb et Films du Québec[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Source : IMDb et Films du Québec
 Titre original : L'Autre Maison
 Réalisation : Mathieu Roy
 Scénario : Mathieu Roy et Michael Ramsey
@@ -565,7 +581,7 @@
 Genre : drame
 Durée : 100 minutes
 Dates de sortie :
-Canada : 22 août 2013 (première en ouverture de la 37e édition du Festival des films du monde de Montréal)[2]
+Canada : 22 août 2013 (première en ouverture de la 37e édition du Festival des films du monde de Montréal)
 Canada : 18 octobre 2013 (sortie en salle au Québec)
 France : 3 mai 2016 (Festival de cinéma québécois des grands lacs à Biscarrosse)
 Classification :
@@ -579,7 +595,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27Autre_Maison_(film)</t>
+          <t>L'Autre_Maison_(film)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -597,7 +613,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Marcel Sabourin : Henri Bernard
 Roy Dupuis : Gabriel Bernard
@@ -620,7 +638,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>L%27Autre_Maison_(film)</t>
+          <t>L'Autre_Maison_(film)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -640,12 +658,51 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Récompenses
-Festival des films du monde de Montréal 2013[3]
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Festival des films du monde de Montréal 2013
 prix de la meilleure interprétation masculine : Marcel Sabourin
-prix du public du long métrage canadien le plus populaire
-Nominations
-Festival des films du monde de Montréal 2013
+prix du public du long métrage canadien le plus populaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>L'Autre_Maison_(film)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/L%27Autre_Maison_(film)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Festival des films du monde de Montréal 2013
 Grand prix des Amériques
 Prix Jutra 2014 :
 meilleur acteur : Marcel Sabourin
